--- a/pin-assignment/pin-assignment.xlsx
+++ b/pin-assignment/pin-assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Desktop\NXP-Git\nxp-aes-documentation\pin-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAABA3D-3A2B-441D-ADD1-B5560E03959E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F7FBC-2A2D-4E24-B37C-2AB84F2F758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5385" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>J 9</t>
   </si>
@@ -57,48 +57,6 @@
     <t>Cam_VDD</t>
   </si>
   <si>
-    <t>/ Cam_A0</t>
-  </si>
-  <si>
-    <t>P3_12 / CLKOUT</t>
-  </si>
-  <si>
-    <t>P3_2 / Servo (PWM-Timer1)</t>
-  </si>
-  <si>
-    <t>P3_10 / Antrieb hinten links (PWM-Timer3)</t>
-  </si>
-  <si>
-    <t>P0_27 / Antrieb rechts hinten (PWM-Timer3)</t>
-  </si>
-  <si>
-    <t>P0_25 / Antrieb rechts Drehgeber / Timer2 Capture Input 1</t>
-  </si>
-  <si>
-    <t>P0_24 / Antrieb links Drehgeber / Timer2 Capture Input 0</t>
-  </si>
-  <si>
-    <t>P3_24 / Display_SCL</t>
-  </si>
-  <si>
-    <t>P3_23 / Display_SDA</t>
-  </si>
-  <si>
-    <t>P3_20 / BBoard_ENC_A</t>
-  </si>
-  <si>
-    <t>P3_22 / BBoard_ENC_B</t>
-  </si>
-  <si>
-    <t>P3_21 / BBoard_ENC_SW</t>
-  </si>
-  <si>
-    <t>P3_30 / Bboard_Switch</t>
-  </si>
-  <si>
-    <t>P2_1 / Bboard_Summer</t>
-  </si>
-  <si>
     <t>nRESET_ULP / Display_Reset</t>
   </si>
   <si>
@@ -111,29 +69,59 @@
     <t>/ Antrieb_Li_GND</t>
   </si>
   <si>
-    <t>/ Antrieb_Re_GND</t>
-  </si>
-  <si>
-    <t>Wo kommen Spannungen für Drehzahlmessungen her?</t>
-  </si>
-  <si>
-    <t>P3_27 / Cam_CLK</t>
-  </si>
-  <si>
-    <t>P3_26 / Cam_SI</t>
-  </si>
-  <si>
-    <t>P0_28 / Timer 2 Capture Input 3</t>
-  </si>
-  <si>
-    <t>P1_0 / Timer 0 Capture Input 2</t>
+    <t>P0_16 / Cam_A0 / ADC0IN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3_27 / Cam_CLK / SCT0_OUT1 </t>
+  </si>
+  <si>
+    <t>P3_12 / System Clock / CLKOUT</t>
+  </si>
+  <si>
+    <t>P3_24 / Display_SCL / Flexcumm2 SCL</t>
+  </si>
+  <si>
+    <t>P3_23 / Display_SDA / Flexcomm 2 SDA</t>
+  </si>
+  <si>
+    <t>P3_20 / BBoard_ENC_A / Simple Input Pin</t>
+  </si>
+  <si>
+    <t>P3_26 / Cam_SI / Simple Output Pin</t>
+  </si>
+  <si>
+    <t>P3_22 / BBoard_ENC_B / Simple Input Pin</t>
+  </si>
+  <si>
+    <t>P3_21 / BBoard_ENC_SW / Simple Input Pin</t>
+  </si>
+  <si>
+    <t>P3_30 / Bboard_Switch / Simple Input Pin</t>
+  </si>
+  <si>
+    <t>P2_1 / Bboard_Summer / Simple Output Pin</t>
+  </si>
+  <si>
+    <t>P3_10 / Antrieb hinten links / CTIMER3_M0</t>
+  </si>
+  <si>
+    <t>P0_27 / Antrieb rechts hinten / CTIMER3_M2</t>
+  </si>
+  <si>
+    <t>P3_2 / Servo / CTIMER1_M2</t>
+  </si>
+  <si>
+    <t>P0_24 / Antrieb links Drehgeber / CTIMER2 Capture 0</t>
+  </si>
+  <si>
+    <t>P0_25 / Antrieb rechts Drehgeber / CTIMER2 Capture 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,15 +160,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,43 +194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -322,7 +291,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -331,19 +315,28 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -366,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,103 +382,89 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,22 +474,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,140 +793,140 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V33"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="37.21875" style="5" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.33203125" customWidth="1"/>
+    <col min="16" max="16" width="27.77734375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="49" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="50"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T8" s="49" t="s">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="50"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R9" s="13" t="s">
+      <c r="T8" s="46"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="49" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="M10" s="49" t="s">
+      <c r="H10" s="46"/>
+      <c r="M10" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="R10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="46"/>
+      <c r="P10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37">
+      <c r="L11" s="19"/>
+      <c r="M11" s="20">
         <v>1</v>
       </c>
       <c r="N11" s="4">
         <v>2</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="R11" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="4">
         <v>3</v>
       </c>
       <c r="H12" s="4">
         <v>4</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37">
+      <c r="L12" s="19"/>
+      <c r="M12" s="20">
         <v>3</v>
       </c>
       <c r="N12" s="4">
         <v>4</v>
       </c>
       <c r="O12" s="2"/>
+      <c r="S12" s="43"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4">
         <v>5</v>
@@ -938,17 +935,17 @@
         <v>6</v>
       </c>
       <c r="O13" s="2"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="4">
         <v>7</v>
       </c>
       <c r="H14" s="4">
         <v>8</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4">
         <v>7</v>
@@ -957,25 +954,25 @@
         <v>8</v>
       </c>
       <c r="O14" s="2"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="4">
         <v>9</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="20">
         <v>10</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="40" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42">
+      <c r="L15" s="24"/>
+      <c r="M15" s="25">
         <v>9</v>
       </c>
       <c r="N15" s="4">
@@ -983,22 +980,22 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="4">
         <v>11</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="20">
         <v>12</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42">
+      <c r="I16" s="19"/>
+      <c r="J16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25">
         <v>11</v>
       </c>
       <c r="N16" s="4">
@@ -1006,18 +1003,18 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="4">
         <v>13</v>
       </c>
       <c r="H17" s="4">
         <v>14</v>
       </c>
-      <c r="K17" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42">
+      <c r="K17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25">
         <v>13</v>
       </c>
       <c r="N17" s="4">
@@ -1025,22 +1022,22 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="4">
         <v>15</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="20">
         <v>16</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42">
+      <c r="I18" s="19"/>
+      <c r="J18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25">
         <v>15</v>
       </c>
       <c r="N18" s="4">
@@ -1048,32 +1045,32 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="4">
         <v>17</v>
       </c>
       <c r="H19" s="4">
         <v>18</v>
       </c>
-      <c r="K19" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42">
+      <c r="K19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25">
         <v>17</v>
       </c>
       <c r="N19" s="4">
         <v>18</v>
       </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-    </row>
-    <row r="20" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="4">
         <v>19</v>
       </c>
@@ -1089,7 +1086,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="L21" s="2"/>
@@ -1097,26 +1094,26 @@
       <c r="N21" s="3"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="5:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="49" t="s">
+    <row r="22" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="M22" s="49" t="s">
+      <c r="H22" s="46"/>
+      <c r="M22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="50"/>
-    </row>
-    <row r="23" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="33">
         <v>2</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28" t="s">
-        <v>10</v>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="M23" s="4">
         <v>1</v>
@@ -1125,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="4">
         <v>3</v>
       </c>
@@ -1135,68 +1132,72 @@
       <c r="M24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="17">
         <v>4</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="52" t="s">
+      <c r="O24" s="18"/>
+      <c r="P24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="53"/>
-    </row>
-    <row r="25" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="56"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="4">
         <v>6</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57" t="s">
-        <v>33</v>
-      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="29"/>
       <c r="M25" s="4">
         <v>5</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="17">
         <v>6</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
-    </row>
-    <row r="26" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O25" s="18"/>
+      <c r="P25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="53"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="4">
         <v>7</v>
       </c>
       <c r="H26" s="4">
         <v>8</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="17" t="s">
+      <c r="K26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="10">
         <v>7</v>
       </c>
       <c r="N26" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31">
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38">
         <v>9</v>
       </c>
       <c r="H27" s="4">
@@ -1205,65 +1206,67 @@
       <c r="M27" s="4">
         <v>9</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="4">
         <v>10</v>
       </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="31"/>
+      <c r="P27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="4">
         <v>11</v>
       </c>
       <c r="H28" s="4">
         <v>12</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="15">
+        <v>11</v>
+      </c>
+      <c r="N28" s="10">
         <v>12</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="7">
-        <v>11</v>
-      </c>
-      <c r="N28" s="16">
-        <v>12</v>
-      </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="K29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25">
+      <c r="O28" s="11"/>
+      <c r="P28" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="59"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="K29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7">
         <v>13</v>
       </c>
       <c r="N29" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12">
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7">
         <v>15</v>
       </c>
       <c r="N30" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M31" s="4">
         <v>17</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M32" s="4">
         <v>19</v>
       </c>
@@ -1280,22 +1283,25 @@
       </c>
     </row>
     <row r="33" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="T8:U8"/>
+  <mergeCells count="12">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P28:T28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>